--- a/Correlation_Analysis/Cor_Base.xlsx
+++ b/Correlation_Analysis/Cor_Base.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Preplant" sheetId="1" r:id="rId1"/>
@@ -42,21 +42,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>TotalP</t>
-  </si>
-  <si>
-    <t>TotalV</t>
-  </si>
-  <si>
-    <t>TotalC</t>
-  </si>
-  <si>
-    <t>TotalS</t>
-  </si>
-  <si>
-    <t>Total_phenols</t>
-  </si>
-  <si>
     <t>RES 1</t>
   </si>
   <si>
@@ -102,16 +87,31 @@
     <t>6</t>
   </si>
   <si>
-    <t>crop_fertiliser_N</t>
-  </si>
-  <si>
-    <t>crop_soil_N</t>
-  </si>
-  <si>
-    <t>soil_tracer_N</t>
-  </si>
-  <si>
-    <t>yield</t>
+    <t>crop_fertiliserN_uptake</t>
+  </si>
+  <si>
+    <t>crop_soilN_uptake</t>
+  </si>
+  <si>
+    <t>yield_Mgha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil_fertiliserN_recovery </t>
+  </si>
+  <si>
+    <t>Total phenols</t>
+  </si>
+  <si>
+    <t>Cinnamic_phenols</t>
+  </si>
+  <si>
+    <t>Syringyl_phenols</t>
+  </si>
+  <si>
+    <t>Vanillyl_phenols</t>
+  </si>
+  <si>
+    <t>p-hydroxybenzoic_phenols</t>
   </si>
 </sst>
 </file>
@@ -432,16 +432,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:R26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -449,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -458,31 +459,31 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -490,14 +491,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>RIGHT(B2,1)</f>
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0.212306347334936</v>
@@ -532,14 +533,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="str">
         <f t="shared" ref="C3:C13" si="0">RIGHT(B3,1)</f>
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0.20039598791188001</v>
@@ -574,14 +575,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0.21038349490029901</v>
@@ -616,14 +617,14 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0.23273894447342</v>
@@ -658,14 +659,14 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0.220018679187379</v>
@@ -700,14 +701,14 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0.219671046468603</v>
@@ -742,14 +743,14 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0.171612552914234</v>
@@ -784,14 +785,14 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0.14617363505514799</v>
@@ -826,14 +827,14 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0.19213804801226</v>
@@ -868,14 +869,14 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0.16513670681383899</v>
@@ -910,14 +911,14 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0.16178962869730601</v>
@@ -952,14 +953,14 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0.16563193170571699</v>
@@ -1034,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1044,10 +1045,14 @@
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1056,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1065,31 +1070,31 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1097,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0.212306347334936</v>
@@ -1138,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0.20039598791188001</v>
@@ -1179,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0.21038349490029901</v>
@@ -1220,13 +1225,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0.23273894447342</v>
@@ -1261,13 +1266,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0.220018679187379</v>
@@ -1302,13 +1307,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0.219671046468603</v>
@@ -1343,13 +1348,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0.171612552914234</v>
@@ -1384,13 +1389,13 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>0.14617363505514799</v>
@@ -1425,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>0.19213804801226</v>
@@ -1466,13 +1471,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>0.16513670681383899</v>
@@ -1507,13 +1512,13 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>0.16178962869730601</v>
@@ -1548,13 +1553,13 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>0.16563193170571699</v>

--- a/Correlation_Analysis/Cor_Base.xlsx
+++ b/Correlation_Analysis/Cor_Base.xlsx
@@ -87,38 +87,57 @@
     <t>6</t>
   </si>
   <si>
-    <t>crop_fertiliserN_uptake</t>
-  </si>
-  <si>
-    <t>crop_soilN_uptake</t>
-  </si>
-  <si>
     <t>yield_Mgha</t>
   </si>
   <si>
-    <t xml:space="preserve">soil_fertiliserN_recovery </t>
-  </si>
-  <si>
     <t>Total phenols</t>
   </si>
   <si>
-    <t>Cinnamic_phenols</t>
-  </si>
-  <si>
-    <t>Syringyl_phenols</t>
-  </si>
-  <si>
-    <t>Vanillyl_phenols</t>
-  </si>
-  <si>
-    <t>p-hydroxybenzoic_phenols</t>
+    <t>p-hydroxybenzoic phenols</t>
+  </si>
+  <si>
+    <t>Vanillyl phenols</t>
+  </si>
+  <si>
+    <t>Cinnamic phenols</t>
+  </si>
+  <si>
+    <t>Syringyl phenols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil FertilizerN Recovery </t>
+  </si>
+  <si>
+    <r>
+      <t>Crop N uptake (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fertilizer)</t>
+    </r>
+  </si>
+  <si>
+    <t>Crop N uptake (soil)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,9 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,16 +452,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,31 +483,31 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1036,7 +1060,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:M1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,12 +1075,12 @@
     <col min="8" max="8" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5546875" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1070,31 +1094,31 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
